--- a/Aufgaben.xlsx
+++ b/Aufgaben.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -729,6 +729,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -765,68 +813,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,49 +1131,49 @@
   </sheetPr>
   <dimension ref="C5:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4.1640625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="15" thickBot="1"/>
-    <row r="6" spans="3:13">
-      <c r="C6" s="55" t="s">
+    <row r="5" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="68"/>
+      <c r="I6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="3:13">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="15"/>
@@ -1200,22 +1200,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8" s="57" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="73"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="26" t="s">
         <v>10</v>
@@ -1236,7 +1236,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="26" t="s">
         <v>11</v>
@@ -1244,7 +1244,7 @@
       <c r="E10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="24">
@@ -1257,13 +1257,13 @@
       <c r="L10" s="18"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="47" t="s">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="33"/>
-      <c r="F11" s="60"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="31"/>
       <c r="H11" s="34"/>
       <c r="I11" s="33"/>
@@ -1272,7 +1272,7 @@
       <c r="L11" s="34"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="26" t="s">
         <v>22</v>
@@ -1280,20 +1280,22 @@
       <c r="E12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="24">
         <v>180</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18">
+        <v>90</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="18"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="26" t="s">
         <v>23</v>
@@ -1301,7 +1303,7 @@
       <c r="E13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="24">
@@ -1314,7 +1316,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="3:13" ht="28">
+    <row r="14" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="26" t="s">
         <v>24</v>
@@ -1322,7 +1324,7 @@
       <c r="E14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="24">
@@ -1335,13 +1337,13 @@
       <c r="L14" s="18"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="47" t="s">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="60"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="31"/>
       <c r="H15" s="34"/>
       <c r="I15" s="33"/>
@@ -1350,13 +1352,13 @@
       <c r="L15" s="34"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="49" t="s">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="61"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="38"/>
       <c r="H16" s="37"/>
       <c r="I16" s="36"/>
@@ -1365,7 +1367,7 @@
       <c r="L16" s="37"/>
       <c r="M16" s="39"/>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="26" t="s">
         <v>5</v>
@@ -1373,7 +1375,7 @@
       <c r="E17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="24">
@@ -1386,13 +1388,13 @@
       <c r="L17" s="19"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="43"/>
-      <c r="F18" s="59"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="24"/>
       <c r="H18" s="19"/>
       <c r="I18" s="13"/>
@@ -1401,13 +1403,13 @@
       <c r="L18" s="19"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="43"/>
-      <c r="F19" s="59"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="24"/>
       <c r="H19" s="19"/>
       <c r="I19" s="13"/>
@@ -1416,13 +1418,13 @@
       <c r="L19" s="19"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="43"/>
-      <c r="F20" s="59"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="24"/>
       <c r="H20" s="19"/>
       <c r="I20" s="13"/>
@@ -1431,7 +1433,7 @@
       <c r="L20" s="19"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="27" t="s">
         <v>9</v>
@@ -1439,7 +1441,7 @@
       <c r="E21" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="24">
@@ -1452,13 +1454,13 @@
       <c r="L21" s="19"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="43"/>
-      <c r="F22" s="59"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="24"/>
       <c r="H22" s="19"/>
       <c r="I22" s="13"/>
@@ -1467,7 +1469,7 @@
       <c r="L22" s="19"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="27" t="s">
         <v>13</v>
@@ -1475,7 +1477,7 @@
       <c r="E23" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="24">
@@ -1488,7 +1490,7 @@
       <c r="L23" s="19"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="27" t="s">
         <v>47</v>
@@ -1496,7 +1498,7 @@
       <c r="E24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="24"/>
@@ -1507,7 +1509,7 @@
       <c r="L24" s="19"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="27" t="s">
         <v>14</v>
@@ -1515,7 +1517,7 @@
       <c r="E25" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="24">
@@ -1528,7 +1530,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="27" t="s">
         <v>15</v>
@@ -1536,7 +1538,7 @@
       <c r="E26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="24">
@@ -1549,13 +1551,13 @@
       <c r="L26" s="19"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="43"/>
-      <c r="F27" s="59"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="24"/>
       <c r="H27" s="19"/>
       <c r="I27" s="13"/>
@@ -1564,11 +1566,11 @@
       <c r="L27" s="19"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="3:13" ht="16" customHeight="1">
-      <c r="C28" s="49" t="s">
+    <row r="28" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="44"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -1579,7 +1581,7 @@
       <c r="L28" s="41"/>
       <c r="M28" s="42"/>
     </row>
-    <row r="29" spans="3:13" ht="16" customHeight="1">
+    <row r="29" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="27" t="s">
         <v>48</v>
@@ -1587,7 +1589,7 @@
       <c r="E29" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="24">
@@ -1600,13 +1602,13 @@
       <c r="L29" s="19"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="3:13" ht="15" customHeight="1">
-      <c r="C30" s="49" t="s">
+    <row r="30" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="44"/>
-      <c r="F30" s="61"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="38"/>
       <c r="H30" s="41"/>
       <c r="I30" s="40"/>
@@ -1615,7 +1617,7 @@
       <c r="L30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="27" t="s">
         <v>17</v>
@@ -1623,7 +1625,7 @@
       <c r="E31" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G31" s="24">
@@ -1636,7 +1638,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="3:13">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="27" t="s">
         <v>18</v>
@@ -1644,7 +1646,7 @@
       <c r="E32" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="24">
@@ -1657,7 +1659,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="3:13" ht="28">
+    <row r="33" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
       <c r="D33" s="27" t="s">
         <v>19</v>
@@ -1665,7 +1667,7 @@
       <c r="E33" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="24">
@@ -1678,7 +1680,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="27" t="s">
         <v>20</v>
@@ -1686,7 +1688,7 @@
       <c r="E34" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="47" t="s">
         <v>50</v>
       </c>
       <c r="G34" s="24">
@@ -1699,7 +1701,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="3:13">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="19" t="s">
         <v>41</v>
@@ -1707,10 +1709,10 @@
       <c r="E35" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="54">
         <v>120</v>
       </c>
       <c r="H35" s="19"/>
@@ -1720,13 +1722,13 @@
       <c r="L35" s="19"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="3:13" ht="14" customHeight="1">
-      <c r="C36" s="47" t="s">
+    <row r="36" spans="3:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="60"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="31"/>
       <c r="H36" s="30"/>
       <c r="I36" s="29"/>
@@ -1735,7 +1737,7 @@
       <c r="L36" s="30"/>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="3:13">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="D37" s="27" t="s">
         <v>32</v>
@@ -1743,7 +1745,7 @@
       <c r="E37" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="24">
@@ -1756,13 +1758,13 @@
       <c r="L37" s="19"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="3:13" ht="14" customHeight="1">
-      <c r="C38" s="47" t="s">
+    <row r="38" spans="3:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="48"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="45"/>
-      <c r="F38" s="60"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="31"/>
       <c r="H38" s="30"/>
       <c r="I38" s="29"/>
@@ -1771,7 +1773,7 @@
       <c r="L38" s="30"/>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="27" t="s">
         <v>30</v>
@@ -1779,7 +1781,7 @@
       <c r="E39" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G39" s="24">
@@ -1792,7 +1794,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="3:13" ht="15" thickBot="1">
+    <row r="40" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7"/>
       <c r="D40" s="28" t="s">
         <v>31</v>
@@ -1800,7 +1802,7 @@
       <c r="E40" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="50" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="25">
@@ -1813,49 +1815,49 @@
       <c r="L40" s="20"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="3:13">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="55">
         <f>(G9/2 + G10/2 +G12+G21+G24+G26+G32+G33+G39+G37/2 + G14/2)/60</f>
         <v>23.5</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="56">
         <f>(H9/2 + H10/2 +H12+H21+H24+H26+H32+H33+H39+H37/2 + H14/2)/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="69">
+      <c r="G42" s="57">
         <f>(G9/2 +G10/2+G13+G14/2+G17+G23+G25+G29+G31+G34+G35+G40+G37/2)/60</f>
         <v>25</v>
       </c>
-      <c r="H42" s="70">
+      <c r="H42" s="58">
         <f>(H9/2 +H10/2+H13+H14/2+H17+H23+H25+H29+H31+H34+H35+H40+H37/2)/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:13" ht="15" thickBot="1">
+    <row r="43" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="71">
+      <c r="G43" s="59">
         <f>(G40 +G39 +G37 +G34 +G33 +G32 +G31 +G26 +G25 +G23 +G21 +G17 +G14 +G13 +G12 +G10 +G9+G29)/60</f>
         <v>46.5</v>
       </c>
-      <c r="H43" s="72">
+      <c r="H43" s="60">
         <f>(H40 +H39 +H37 +H34 +H33 +H32 +H31 +H26 +H25 +H23 +H21 +H17 +H14 +H13 +H12 +H10 +H9+H29)/60</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1890,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1905,7 +1907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
